--- a/uploads/test7.xlsx
+++ b/uploads/test7.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="13">
   <si>
     <t>mssv</t>
   </si>
@@ -199,8 +199,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D8" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:D8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D21" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:D21"/>
   <tableColumns count="4">
     <tableColumn id="1" uniqueName="Mssv" name="mssv" dataDxfId="3">
       <xmlColumnPr mapId="1" xpath="/Dssv/Sv/Mssv" xmlDataType="integer"/>
@@ -482,9 +482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -607,6 +609,188 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>3115410004</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>36524</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>3115410092</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>35809</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>3115410093</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>35838</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>3115410045</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>36506</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>3115410003</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>36069</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>3115619138</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>33158</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>3131313141</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>34581</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>3115410092</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>35809</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>3115410093</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>35838</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>3115410045</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>36506</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>3115410003</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1">
+        <v>36069</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>3115619138</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1">
+        <v>33158</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>3131313141</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1">
+        <v>34581</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
